--- a/biology/Botanique/Cyrtorchis_monteiroae/Cyrtorchis_monteiroae.xlsx
+++ b/biology/Botanique/Cyrtorchis_monteiroae/Cyrtorchis_monteiroae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtorchis monteiroae (Rchb.f.) Schltr. est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Cyrtorchis, présente dans plusieurs pays d'Afrique tropicale : Sierra Leone, Ghana, Nigeria, Cameroun, région continentale de la Guinée équatoriale, Sao Tomé-et-Principe, Gabon, République démocratique du Congo, Afrique de l'Est, Angola[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtorchis monteiroae (Rchb.f.) Schltr. est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Cyrtorchis, présente dans plusieurs pays d'Afrique tropicale : Sierra Leone, Ghana, Nigeria, Cameroun, région continentale de la Guinée équatoriale, Sao Tomé-et-Principe, Gabon, République démocratique du Congo, Afrique de l'Est, Angola.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtorchis monteiroae est une orchidée avec des tiges ligneuses de 30 à 80 cm. Ses feuilles mesurant de 10 à 20 cm sont de forme elliptique avec des bords ondulés. Ses inflorescences se disposent le long de la tige et possèdent de 10 à 20 fleurs blanches[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtorchis monteiroae est une orchidée avec des tiges ligneuses de 30 à 80 cm. Ses feuilles mesurant de 10 à 20 cm sont de forme elliptique avec des bords ondulés. Ses inflorescences se disposent le long de la tige et possèdent de 10 à 20 fleurs blanches.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cyrtorchis monteiroae est une plante qui poussent dans les forêts de l'Afrique de l'Ouest tropicale. On la trouve près des lacs et des rivières à une altitude comprise en 50 et 1200 mètres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cyrtorchis monteiroae est une plante qui poussent dans les forêts de l'Afrique de l'Ouest tropicale. On la trouve près des lacs et des rivières à une altitude comprise en 50 et 1200 mètres.
 </t>
         </is>
       </c>
